--- a/Code/Results/Cases/Case_4_75/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_75/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8444703999021499</v>
+        <v>0.3391143333193156</v>
       </c>
       <c r="C2">
-        <v>0.1087865426977004</v>
+        <v>0.03373466785679113</v>
       </c>
       <c r="D2">
-        <v>0.4302404953263306</v>
+        <v>0.6371284573104248</v>
       </c>
       <c r="E2">
-        <v>0.1551029290391135</v>
+        <v>0.2525459256420177</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5407382340236211</v>
+        <v>0.9775633400828809</v>
       </c>
       <c r="H2">
-        <v>0.4366727892629569</v>
+        <v>1.016628841809762</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06722183701247886</v>
+        <v>0.1260186915024093</v>
       </c>
       <c r="K2">
-        <v>0.8583925025416477</v>
+        <v>0.2957287194307412</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.355229949788658</v>
+        <v>0.2675125823171811</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.006878747529413</v>
+        <v>4.03728545767737</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7339057578691097</v>
+        <v>0.3066594699521659</v>
       </c>
       <c r="C3">
-        <v>0.09867075524823576</v>
+        <v>0.03034087177651656</v>
       </c>
       <c r="D3">
-        <v>0.3960060488487471</v>
+        <v>0.6317625143170176</v>
       </c>
       <c r="E3">
-        <v>0.1444677546231148</v>
+        <v>0.2512538757166318</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5312857820906842</v>
+        <v>0.9820653683865075</v>
       </c>
       <c r="H3">
-        <v>0.4389745195461643</v>
+        <v>1.022953157778204</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0639686670553985</v>
+        <v>0.1259393466668008</v>
       </c>
       <c r="K3">
-        <v>0.7484747193092147</v>
+        <v>0.2625023828075257</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3109132540626689</v>
+        <v>0.2561742159976461</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.991241634169029</v>
+        <v>4.059775269391679</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6661485257863546</v>
+        <v>0.2867846183939378</v>
       </c>
       <c r="C4">
-        <v>0.09245164171196052</v>
+        <v>0.02824515716683607</v>
       </c>
       <c r="D4">
-        <v>0.3754878019237538</v>
+        <v>0.6287632993262093</v>
       </c>
       <c r="E4">
-        <v>0.1381344166650749</v>
+        <v>0.2505758187692173</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.526587954831939</v>
+        <v>0.9853685517947781</v>
       </c>
       <c r="H4">
-        <v>0.4410545779110464</v>
+        <v>1.027230046640092</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06206638662674635</v>
+        <v>0.125945988430054</v>
       </c>
       <c r="K4">
-        <v>0.6810304110859846</v>
+        <v>0.2421010022130332</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2838951531375429</v>
+        <v>0.2493211293329551</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.985370298235622</v>
+        <v>4.075540495075415</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6385594498493958</v>
+        <v>0.2786991507011294</v>
       </c>
       <c r="C5">
-        <v>0.08991460878538504</v>
+        <v>0.02738819561297845</v>
       </c>
       <c r="D5">
-        <v>0.3672453664207751</v>
+        <v>0.6276155524782325</v>
       </c>
       <c r="E5">
-        <v>0.1356003244328541</v>
+        <v>0.2503285365435666</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5249393239907647</v>
+        <v>0.986850118470592</v>
       </c>
       <c r="H5">
-        <v>0.4420644620928016</v>
+        <v>1.029072003459717</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06131396077153894</v>
+        <v>0.1259626297231016</v>
       </c>
       <c r="K5">
-        <v>0.6535484299122203</v>
+        <v>0.2337876871110325</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2729279823889428</v>
+        <v>0.2465559562180957</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.983878049302433</v>
+        <v>4.082457019176417</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6339793817419377</v>
+        <v>0.2773574062314594</v>
       </c>
       <c r="C6">
-        <v>0.08949315453826046</v>
+        <v>0.0272457217776747</v>
       </c>
       <c r="D6">
-        <v>0.365883692690133</v>
+        <v>0.6274294715472593</v>
       </c>
       <c r="E6">
-        <v>0.1351822911217049</v>
+        <v>0.2502892303244764</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5246812723995831</v>
+        <v>0.9871043142371221</v>
       </c>
       <c r="H6">
-        <v>0.4422417981013282</v>
+        <v>1.029383846201938</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06119036326602156</v>
+        <v>0.1259662350346353</v>
       </c>
       <c r="K6">
-        <v>0.6489849330766475</v>
+        <v>0.2324073066684491</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2711093297537204</v>
+        <v>0.2460984684326348</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.98368357910158</v>
+        <v>4.08363522580089</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6657763715305407</v>
+        <v>0.286675518861415</v>
       </c>
       <c r="C7">
-        <v>0.09241743817933923</v>
+        <v>0.02823361171915906</v>
       </c>
       <c r="D7">
-        <v>0.3753761694199227</v>
+        <v>0.62874751873116</v>
       </c>
       <c r="E7">
-        <v>0.1381000549718756</v>
+        <v>0.2505723662249935</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.526564660597785</v>
+        <v>0.9853879841485025</v>
       </c>
       <c r="H7">
-        <v>0.4410675476182888</v>
+        <v>1.027254486594735</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06205614845494623</v>
+        <v>0.1259461564204862</v>
       </c>
       <c r="K7">
-        <v>0.6806597828549741</v>
+        <v>0.2419888836242734</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2837470792774752</v>
+        <v>0.2492837255963067</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.985346575975569</v>
+        <v>4.075631781229944</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8063144480526034</v>
+        <v>0.3279132622310783</v>
       </c>
       <c r="C8">
-        <v>0.1052998438169368</v>
+        <v>0.03256699024005627</v>
       </c>
       <c r="D8">
-        <v>0.4183277991723884</v>
+        <v>0.6352170385336251</v>
       </c>
       <c r="E8">
-        <v>0.1513934449748682</v>
+        <v>0.2520765301814869</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5372418538104711</v>
+        <v>0.9790037713902251</v>
       </c>
       <c r="H8">
-        <v>0.4373246846306955</v>
+        <v>1.018727795777636</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0660796692984853</v>
+        <v>0.1259798515795367</v>
       </c>
       <c r="K8">
-        <v>0.8204775388380767</v>
+        <v>0.2842726143876746</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3399061856976076</v>
+        <v>0.2635806521117559</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.000689745552393</v>
+        <v>4.044633962246678</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.083438362242561</v>
+        <v>0.4091805791561001</v>
       </c>
       <c r="C9">
-        <v>0.1305335280324726</v>
+        <v>0.04096825513074975</v>
       </c>
       <c r="D9">
-        <v>0.5068884042846946</v>
+        <v>0.6502430090611995</v>
       </c>
       <c r="E9">
-        <v>0.1791509046903386</v>
+        <v>0.2559391629600896</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5675445180493881</v>
+        <v>0.9707622152117352</v>
       </c>
       <c r="H9">
-        <v>0.4355343287884068</v>
+        <v>1.005127635586518</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07478093526677299</v>
+        <v>0.1264847092071193</v>
       </c>
       <c r="K9">
-        <v>1.095484955301913</v>
+        <v>0.3671716126931415</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4518293675540974</v>
+        <v>0.2924733319644162</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.062164095877364</v>
+        <v>3.999367302171464</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.2887303395039</v>
+        <v>0.4691150880456405</v>
       </c>
       <c r="C10">
-        <v>0.1491089185532104</v>
+        <v>0.04707978096541865</v>
       </c>
       <c r="D10">
-        <v>0.5751176255754444</v>
+        <v>0.6627034510894418</v>
       </c>
       <c r="E10">
-        <v>0.2007651781102524</v>
+        <v>0.259332072155253</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5963865632580507</v>
+        <v>0.9673185701205966</v>
       </c>
       <c r="H10">
-        <v>0.4379839814479851</v>
+        <v>0.9970336727870972</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08175140209559117</v>
+        <v>0.1271226965732666</v>
       </c>
       <c r="K10">
-        <v>1.298741771971521</v>
+        <v>0.4280488609504118</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5355569587668541</v>
+        <v>0.314217047532189</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.129108119621407</v>
+        <v>3.975570074470028</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.382671492448623</v>
+        <v>0.4964270995037907</v>
       </c>
       <c r="C11">
-        <v>0.1575803100342767</v>
+        <v>0.04984645405039601</v>
       </c>
       <c r="D11">
-        <v>0.6069682421379241</v>
+        <v>0.6686795764955207</v>
       </c>
       <c r="E11">
-        <v>0.2109086975869587</v>
+        <v>0.2609958297924848</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6111430216932661</v>
+        <v>0.9663198455479574</v>
       </c>
       <c r="H11">
-        <v>0.4400069590178504</v>
+        <v>0.993762779671556</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08506771464480067</v>
+        <v>0.127470849863542</v>
       </c>
       <c r="K11">
-        <v>1.391641099335914</v>
+        <v>0.455734085148265</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5740685210247349</v>
+        <v>0.3242198407195005</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.164921412083686</v>
+        <v>3.966798289401652</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.418339979866715</v>
+        <v>0.5067758799249305</v>
       </c>
       <c r="C12">
-        <v>0.160792428459601</v>
+        <v>0.05089213521196712</v>
       </c>
       <c r="D12">
-        <v>0.6191571371402915</v>
+        <v>0.6709867183712674</v>
       </c>
       <c r="E12">
-        <v>0.2147985594754402</v>
+        <v>0.2616431146190052</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6169847251143779</v>
+        <v>0.9660233555568283</v>
       </c>
       <c r="H12">
-        <v>0.4409118522054172</v>
+        <v>0.9925832200587905</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08634619604261218</v>
+        <v>0.1276110064419882</v>
       </c>
       <c r="K12">
-        <v>1.426897373376647</v>
+        <v>0.466216185627502</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5887212457899622</v>
+        <v>0.3280235219737904</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.179310247788777</v>
+        <v>3.963771926275683</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.410653647699036</v>
+        <v>0.5045468122692682</v>
       </c>
       <c r="C13">
-        <v>0.1601004363289888</v>
+        <v>0.05066701883909275</v>
       </c>
       <c r="D13">
-        <v>0.616526176962708</v>
+        <v>0.6704878745389919</v>
       </c>
       <c r="E13">
-        <v>0.2139585740478935</v>
+        <v>0.2615029434894893</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6157150154378996</v>
+        <v>0.9660835752387555</v>
       </c>
       <c r="H13">
-        <v>0.4407106559683314</v>
+        <v>0.9928346336825626</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0860698148033876</v>
+        <v>0.1275804514345822</v>
       </c>
       <c r="K13">
-        <v>1.419300622455808</v>
+        <v>0.4639587613373237</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5855623008573048</v>
+        <v>0.3272036296431793</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.176173627702155</v>
+        <v>3.964410573176593</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.38560396317726</v>
+        <v>0.4972783763003292</v>
       </c>
       <c r="C14">
-        <v>0.1578444823263823</v>
+        <v>0.04993252324061359</v>
       </c>
       <c r="D14">
-        <v>0.6079684043499753</v>
+        <v>0.6688685032147816</v>
       </c>
       <c r="E14">
-        <v>0.2112277182964917</v>
+        <v>0.2610487367224579</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6116184259432771</v>
+        <v>0.9662938153262814</v>
       </c>
       <c r="H14">
-        <v>0.4400785737070976</v>
+        <v>0.9936645533387605</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0851724313101343</v>
+        <v>0.1274822139820841</v>
       </c>
       <c r="K14">
-        <v>1.394540017667168</v>
+        <v>0.456596490780413</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5752725720430476</v>
+        <v>0.3245324554753282</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.166088276416417</v>
+        <v>3.966543389987947</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.370273161746525</v>
+        <v>0.4928270564192019</v>
       </c>
       <c r="C15">
-        <v>0.1564632252464833</v>
+        <v>0.04948236157989072</v>
       </c>
       <c r="D15">
-        <v>0.6027434953389275</v>
+        <v>0.6678823318805485</v>
       </c>
       <c r="E15">
-        <v>0.2095614600796623</v>
+        <v>0.2607727678865928</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6091427639661902</v>
+        <v>0.9664332355300189</v>
       </c>
       <c r="H15">
-        <v>0.4397097383194222</v>
+        <v>0.9941805922998981</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0846257640489867</v>
+        <v>0.1274231236695869</v>
       </c>
       <c r="K15">
-        <v>1.37938395039123</v>
+        <v>0.4520866515242403</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5689790900261613</v>
+        <v>0.3228983414906494</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.16002016390479</v>
+        <v>3.967888261525985</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.282603488639012</v>
+        <v>0.4673310955655836</v>
       </c>
       <c r="C16">
-        <v>0.1485558161601546</v>
+        <v>0.04689869594457718</v>
       </c>
       <c r="D16">
-        <v>0.5730533810834686</v>
+        <v>0.6623190783432165</v>
       </c>
       <c r="E16">
-        <v>0.200108870338525</v>
+        <v>0.2592257587921765</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5954566666245569</v>
+        <v>0.9673952695941921</v>
       </c>
       <c r="H16">
-        <v>0.4378707445922174</v>
+        <v>0.99725570060005</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08153774655590951</v>
+        <v>0.1271011086263201</v>
       </c>
       <c r="K16">
-        <v>1.292680586734235</v>
+        <v>0.4262393579176091</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.533049357749718</v>
+        <v>0.3135655683833463</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.12688022151471</v>
+        <v>3.976184657068956</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.228973254725702</v>
+        <v>0.4517019481013165</v>
       </c>
       <c r="C17">
-        <v>0.1437111109610925</v>
+        <v>0.04531020411840814</v>
       </c>
       <c r="D17">
-        <v>0.5550551379147066</v>
+        <v>0.6589849331427899</v>
       </c>
       <c r="E17">
-        <v>0.1943924443312213</v>
+        <v>0.2583075008604681</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5874924732740681</v>
+        <v>0.9681309148895707</v>
       </c>
       <c r="H17">
-        <v>0.4369809369764397</v>
+        <v>0.9992474289944937</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07968180134121639</v>
+        <v>0.1269183916510528</v>
       </c>
       <c r="K17">
-        <v>1.239612731058116</v>
+        <v>0.4103804230065009</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.511121833176432</v>
+        <v>0.3078686298631936</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.107961639382864</v>
+        <v>3.981800229312171</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.198177599573881</v>
+        <v>0.4427169778172981</v>
       </c>
       <c r="C18">
-        <v>0.1409265023653035</v>
+        <v>0.04439527926682274</v>
       </c>
       <c r="D18">
-        <v>0.5447788340925683</v>
+        <v>0.657096202290262</v>
       </c>
       <c r="E18">
-        <v>0.1911335317984637</v>
+        <v>0.2577906696093564</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5830644924821371</v>
+        <v>0.9686074799953417</v>
       </c>
       <c r="H18">
-        <v>0.4365541435777374</v>
+        <v>1.000431715754829</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07862788527182829</v>
+        <v>0.1268187509924559</v>
       </c>
       <c r="K18">
-        <v>1.209129683989971</v>
+        <v>0.4012580478966754</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4985490248777467</v>
+        <v>0.3046024046405194</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.097581089108445</v>
+        <v>3.985223461088964</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.187759031173783</v>
+        <v>0.4396756102358097</v>
       </c>
       <c r="C19">
-        <v>0.1399839820365258</v>
+        <v>0.04408528570517944</v>
       </c>
       <c r="D19">
-        <v>0.5413121554261977</v>
+        <v>0.6564616925917051</v>
       </c>
       <c r="E19">
-        <v>0.1900349877229672</v>
+        <v>0.2576176260912817</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5815909577282667</v>
+        <v>0.968778013666423</v>
       </c>
       <c r="H19">
-        <v>0.4364239978289248</v>
+        <v>1.000839342965861</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07827332737797121</v>
+        <v>0.1267859513467897</v>
       </c>
       <c r="K19">
-        <v>1.198815124694818</v>
+        <v>0.3981692581049572</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4942985976618957</v>
+        <v>0.3034983265690698</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.094150794034363</v>
+        <v>3.986415708465813</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.234676893769915</v>
+        <v>0.4533652353387083</v>
       </c>
       <c r="C20">
-        <v>0.1442266297662798</v>
+        <v>0.04547943327037274</v>
       </c>
       <c r="D20">
-        <v>0.5569631592426276</v>
+        <v>0.6593368602205771</v>
       </c>
       <c r="E20">
-        <v>0.1949979356438973</v>
+        <v>0.2584040790611439</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5883243299561798</v>
+        <v>0.9680470728043673</v>
       </c>
       <c r="H20">
-        <v>0.4370668039173609</v>
+        <v>0.9990314015033164</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07987795264811837</v>
+        <v>0.126937277872706</v>
       </c>
       <c r="K20">
-        <v>1.245257634820803</v>
+        <v>0.4120687135819878</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5134519272527385</v>
+        <v>0.3084739930248332</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.109923316229867</v>
+        <v>3.981182435881436</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.392958954704511</v>
+        <v>0.4994131248700739</v>
       </c>
       <c r="C21">
-        <v>0.1585069877304477</v>
+        <v>0.0501483170849184</v>
       </c>
       <c r="D21">
-        <v>0.6104784717713017</v>
+        <v>0.6693429558087871</v>
       </c>
       <c r="E21">
-        <v>0.2120284809879394</v>
+        <v>0.2611816802901643</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6128146528739933</v>
+        <v>0.9662298448183719</v>
       </c>
       <c r="H21">
-        <v>0.4402603955236373</v>
+        <v>0.9934191834970392</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08543538482398816</v>
+        <v>0.1275108430352603</v>
       </c>
       <c r="K21">
-        <v>1.401810588068656</v>
+        <v>0.4587590182104009</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.578292966374633</v>
+        <v>0.3253166156705944</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.169027671660672</v>
+        <v>3.965908915027626</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.496967282055778</v>
+        <v>0.5295446492967528</v>
       </c>
       <c r="C22">
-        <v>0.1678650143697666</v>
+        <v>0.05318803070615274</v>
       </c>
       <c r="D22">
-        <v>0.646204106550698</v>
+        <v>0.6761395718386893</v>
       </c>
       <c r="E22">
-        <v>0.2234450351694548</v>
+        <v>0.2630975635133623</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6303091132761693</v>
+        <v>0.9655184477641541</v>
       </c>
       <c r="H22">
-        <v>0.4431610612185324</v>
+        <v>0.9900954752877311</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08920051031882537</v>
+        <v>0.1279341820718258</v>
       </c>
       <c r="K22">
-        <v>1.504585187894946</v>
+        <v>0.489263721741338</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6210781909874825</v>
+        <v>0.3364164868677051</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.212505986982137</v>
+        <v>3.957648147073286</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.441399236680525</v>
+        <v>0.5134597120422768</v>
       </c>
       <c r="C23">
-        <v>0.1628677797616263</v>
+        <v>0.05156676535737859</v>
       </c>
       <c r="D23">
-        <v>0.6270642131775332</v>
+        <v>0.672488618926792</v>
       </c>
       <c r="E23">
-        <v>0.2173242294612763</v>
+        <v>0.2620658338514659</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6208293219767853</v>
+        <v>0.9658545371941187</v>
       </c>
       <c r="H23">
-        <v>0.4415356301570768</v>
+        <v>0.9918379255059904</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08717820645343721</v>
+        <v>0.1277038059160489</v>
       </c>
       <c r="K23">
-        <v>1.449685438342897</v>
+        <v>0.4729838844999961</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5982026744449769</v>
+        <v>0.3304838985953324</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.188837309506084</v>
+        <v>3.961899568898787</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.232098164219366</v>
+        <v>0.4526132617857286</v>
       </c>
       <c r="C24">
-        <v>0.1439935616889585</v>
+        <v>0.04540292999843132</v>
       </c>
       <c r="D24">
-        <v>0.5561003220723819</v>
+        <v>0.6591776664078282</v>
       </c>
       <c r="E24">
-        <v>0.1947241075489785</v>
+        <v>0.2583603815173134</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5879477794109675</v>
+        <v>0.9680848107510514</v>
       </c>
       <c r="H24">
-        <v>0.4370277200486328</v>
+        <v>0.999128945371865</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0797892319962088</v>
+        <v>0.1269287225726501</v>
       </c>
       <c r="K24">
-        <v>1.242705492776196</v>
+        <v>0.4113054525196844</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5123983876324303</v>
+        <v>0.3082002802278367</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.109034901427407</v>
+        <v>3.981461133605478</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.008230248903914</v>
+        <v>0.3871544895141596</v>
       </c>
       <c r="C25">
-        <v>0.123704927157533</v>
+        <v>0.03870603430699759</v>
       </c>
       <c r="D25">
-        <v>0.4824146388295958</v>
+        <v>0.6459281906420529</v>
       </c>
       <c r="E25">
-        <v>0.1714419474340332</v>
+        <v>0.2547966375913937</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5582578743955509</v>
+        <v>0.972533433740864</v>
       </c>
       <c r="H25">
-        <v>0.4353866397032817</v>
+        <v>1.008473204339083</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07233191601260813</v>
+        <v>0.1263012012146589</v>
       </c>
       <c r="K25">
-        <v>1.020929914733728</v>
+        <v>0.3447490549276608</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4213189678831526</v>
+        <v>0.2845660137116823</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.041910784547156</v>
+        <v>4.009951738581805</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_75/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_75/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3391143333193156</v>
+        <v>0.8444703999021215</v>
       </c>
       <c r="C2">
-        <v>0.03373466785679113</v>
+        <v>0.1087865426977146</v>
       </c>
       <c r="D2">
-        <v>0.6371284573104248</v>
+        <v>0.4302404953262879</v>
       </c>
       <c r="E2">
-        <v>0.2525459256420177</v>
+        <v>0.1551029290391277</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9775633400828809</v>
+        <v>0.5407382340236211</v>
       </c>
       <c r="H2">
-        <v>1.016628841809762</v>
+        <v>0.4366727892629569</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1260186915024093</v>
+        <v>0.06722183701251083</v>
       </c>
       <c r="K2">
-        <v>0.2957287194307412</v>
+        <v>0.8583925025417045</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2675125823171811</v>
+        <v>0.3552299497886438</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.03728545767737</v>
+        <v>2.00687874752947</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3066594699521659</v>
+        <v>0.7339057578690245</v>
       </c>
       <c r="C3">
-        <v>0.03034087177651656</v>
+        <v>0.09867075524832103</v>
       </c>
       <c r="D3">
-        <v>0.6317625143170176</v>
+        <v>0.3960060488487755</v>
       </c>
       <c r="E3">
-        <v>0.2512538757166318</v>
+        <v>0.1444677546231148</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.9820653683865075</v>
+        <v>0.5312857820906629</v>
       </c>
       <c r="H3">
-        <v>1.022953157778204</v>
+        <v>0.4389745195461572</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1259393466668008</v>
+        <v>0.06396866705544468</v>
       </c>
       <c r="K3">
-        <v>0.2625023828075257</v>
+        <v>0.7484747193091152</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2561742159976461</v>
+        <v>0.3109132540626689</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.059775269391679</v>
+        <v>1.991241634168858</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2867846183939378</v>
+        <v>0.6661485257862125</v>
       </c>
       <c r="C4">
-        <v>0.02824515716683607</v>
+        <v>0.09245164171218789</v>
       </c>
       <c r="D4">
-        <v>0.6287632993262093</v>
+        <v>0.3754878019234837</v>
       </c>
       <c r="E4">
-        <v>0.2505758187692173</v>
+        <v>0.1381344166650926</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.9853685517947781</v>
+        <v>0.526587954831939</v>
       </c>
       <c r="H4">
-        <v>1.027230046640092</v>
+        <v>0.4410545779110606</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.125945988430054</v>
+        <v>0.06206638662673569</v>
       </c>
       <c r="K4">
-        <v>0.2421010022130332</v>
+        <v>0.6810304110859704</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2493211293329551</v>
+        <v>0.2838951531375429</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.075540495075415</v>
+        <v>1.985370298235608</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2786991507011294</v>
+        <v>0.6385594498493958</v>
       </c>
       <c r="C5">
-        <v>0.02738819561297845</v>
+        <v>0.08991460878538504</v>
       </c>
       <c r="D5">
-        <v>0.6276155524782325</v>
+        <v>0.3672453664207893</v>
       </c>
       <c r="E5">
-        <v>0.2503285365435666</v>
+        <v>0.1356003244328541</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.986850118470592</v>
+        <v>0.5249393239906937</v>
       </c>
       <c r="H5">
-        <v>1.029072003459717</v>
+        <v>0.4420644620928016</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1259626297231016</v>
+        <v>0.06131396077153894</v>
       </c>
       <c r="K5">
-        <v>0.2337876871110325</v>
+        <v>0.6535484299122345</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2465559562180957</v>
+        <v>0.2729279823889428</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.082457019176417</v>
+        <v>1.983878049302405</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2773574062314594</v>
+        <v>0.6339793817420514</v>
       </c>
       <c r="C6">
-        <v>0.0272457217776747</v>
+        <v>0.08949315453826756</v>
       </c>
       <c r="D6">
-        <v>0.6274294715472593</v>
+        <v>0.3658836926899482</v>
       </c>
       <c r="E6">
-        <v>0.2502892303244764</v>
+        <v>0.1351822911216907</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.9871043142371221</v>
+        <v>0.524681272399647</v>
       </c>
       <c r="H6">
-        <v>1.029383846201938</v>
+        <v>0.4422417981014419</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1259662350346353</v>
+        <v>0.06119036326598959</v>
       </c>
       <c r="K6">
-        <v>0.2324073066684491</v>
+        <v>0.6489849330765196</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2460984684326348</v>
+        <v>0.2711093297537097</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.08363522580089</v>
+        <v>1.98368357910158</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.286675518861415</v>
+        <v>0.665776371530427</v>
       </c>
       <c r="C7">
-        <v>0.02823361171915906</v>
+        <v>0.09241743817909764</v>
       </c>
       <c r="D7">
-        <v>0.62874751873116</v>
+        <v>0.3753761694196385</v>
       </c>
       <c r="E7">
-        <v>0.2505723662249935</v>
+        <v>0.1381000549719005</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.9853879841485025</v>
+        <v>0.5265646605977707</v>
       </c>
       <c r="H7">
-        <v>1.027254486594735</v>
+        <v>0.4410675476182888</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1259461564204862</v>
+        <v>0.06205614845495333</v>
       </c>
       <c r="K7">
-        <v>0.2419888836242734</v>
+        <v>0.6806597828548178</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2492837255963067</v>
+        <v>0.2837470792774965</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.075631781229944</v>
+        <v>1.985346575975484</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3279132622310783</v>
+        <v>0.8063144480526319</v>
       </c>
       <c r="C8">
-        <v>0.03256699024005627</v>
+        <v>0.1052998438170221</v>
       </c>
       <c r="D8">
-        <v>0.6352170385336251</v>
+        <v>0.4183277991726442</v>
       </c>
       <c r="E8">
-        <v>0.2520765301814869</v>
+        <v>0.1513934449748469</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.9790037713902251</v>
+        <v>0.5372418538104995</v>
       </c>
       <c r="H8">
-        <v>1.018727795777636</v>
+        <v>0.4373246846306955</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1259798515795367</v>
+        <v>0.06607966929843556</v>
       </c>
       <c r="K8">
-        <v>0.2842726143876746</v>
+        <v>0.8204775388380483</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2635806521117559</v>
+        <v>0.3399061856976289</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.044633962246678</v>
+        <v>2.000689745552421</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4091805791561001</v>
+        <v>1.083438362242532</v>
       </c>
       <c r="C9">
-        <v>0.04096825513074975</v>
+        <v>0.1305335280327</v>
       </c>
       <c r="D9">
-        <v>0.6502430090611995</v>
+        <v>0.5068884042846378</v>
       </c>
       <c r="E9">
-        <v>0.2559391629600896</v>
+        <v>0.1791509046903101</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.9707622152117352</v>
+        <v>0.5675445180493455</v>
       </c>
       <c r="H9">
-        <v>1.005127635586518</v>
+        <v>0.4355343287883926</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1264847092071193</v>
+        <v>0.07478093526672325</v>
       </c>
       <c r="K9">
-        <v>0.3671716126931415</v>
+        <v>1.095484955301856</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2924733319644162</v>
+        <v>0.4518293675540974</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.999367302171464</v>
+        <v>2.062164095877279</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4691150880456405</v>
+        <v>1.2887303395039</v>
       </c>
       <c r="C10">
-        <v>0.04707978096541865</v>
+        <v>0.1491089185532246</v>
       </c>
       <c r="D10">
-        <v>0.6627034510894418</v>
+        <v>0.5751176255754729</v>
       </c>
       <c r="E10">
-        <v>0.259332072155253</v>
+        <v>0.2007651781102524</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.9673185701205966</v>
+        <v>0.5963865632580365</v>
       </c>
       <c r="H10">
-        <v>0.9970336727870972</v>
+        <v>0.4379839814479851</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1271226965732666</v>
+        <v>0.08175140209561249</v>
       </c>
       <c r="K10">
-        <v>0.4280488609504118</v>
+        <v>1.298741771971578</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.314217047532189</v>
+        <v>0.5355569587668398</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.975570074470028</v>
+        <v>2.129108119621492</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4964270995037907</v>
+        <v>1.382671492448367</v>
       </c>
       <c r="C11">
-        <v>0.04984645405039601</v>
+        <v>0.1575803100342483</v>
       </c>
       <c r="D11">
-        <v>0.6686795764955207</v>
+        <v>0.6069682421378957</v>
       </c>
       <c r="E11">
-        <v>0.2609958297924848</v>
+        <v>0.2109086975869445</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.9663198455479574</v>
+        <v>0.6111430216932661</v>
       </c>
       <c r="H11">
-        <v>0.993762779671556</v>
+        <v>0.440006959017964</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.127470849863542</v>
+        <v>0.08506771464484331</v>
       </c>
       <c r="K11">
-        <v>0.455734085148265</v>
+        <v>1.391641099336113</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3242198407195005</v>
+        <v>0.5740685210247278</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.966798289401652</v>
+        <v>2.164921412083686</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5067758799249305</v>
+        <v>1.418339979866971</v>
       </c>
       <c r="C12">
-        <v>0.05089213521196712</v>
+        <v>0.1607924284600699</v>
       </c>
       <c r="D12">
-        <v>0.6709867183712674</v>
+        <v>0.6191571371403199</v>
       </c>
       <c r="E12">
-        <v>0.2616431146190052</v>
+        <v>0.2147985594754331</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.9660233555568283</v>
+        <v>0.616984725114321</v>
       </c>
       <c r="H12">
-        <v>0.9925832200587905</v>
+        <v>0.4409118522054172</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1276110064419882</v>
+        <v>0.08634619604258376</v>
       </c>
       <c r="K12">
-        <v>0.466216185627502</v>
+        <v>1.426897373376477</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3280235219737904</v>
+        <v>0.5887212457899551</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.963771926275683</v>
+        <v>2.179310247788692</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5045468122692682</v>
+        <v>1.410653647698979</v>
       </c>
       <c r="C13">
-        <v>0.05066701883909275</v>
+        <v>0.1601004363289746</v>
       </c>
       <c r="D13">
-        <v>0.6704878745389919</v>
+        <v>0.616526176962708</v>
       </c>
       <c r="E13">
-        <v>0.2615029434894893</v>
+        <v>0.2139585740479077</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.9660835752387555</v>
+        <v>0.6157150154378996</v>
       </c>
       <c r="H13">
-        <v>0.9928346336825626</v>
+        <v>0.4407106559683029</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1275804514345822</v>
+        <v>0.08606981480339471</v>
       </c>
       <c r="K13">
-        <v>0.4639587613373237</v>
+        <v>1.419300622455694</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3272036296431793</v>
+        <v>0.5855623008573048</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.964410573176593</v>
+        <v>2.176173627702127</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4972783763003292</v>
+        <v>1.385603963177459</v>
       </c>
       <c r="C14">
-        <v>0.04993252324061359</v>
+        <v>0.1578444823264391</v>
       </c>
       <c r="D14">
-        <v>0.6688685032147816</v>
+        <v>0.6079684043500038</v>
       </c>
       <c r="E14">
-        <v>0.2610487367224579</v>
+        <v>0.2112277182965201</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.9662938153262814</v>
+        <v>0.6116184259432913</v>
       </c>
       <c r="H14">
-        <v>0.9936645533387605</v>
+        <v>0.4400785737069839</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1274822139820841</v>
+        <v>0.08517243131007035</v>
       </c>
       <c r="K14">
-        <v>0.456596490780413</v>
+        <v>1.394540017667111</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3245324554753282</v>
+        <v>0.5752725720430405</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.966543389987947</v>
+        <v>2.166088276416417</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4928270564192019</v>
+        <v>1.370273161746496</v>
       </c>
       <c r="C15">
-        <v>0.04948236157989072</v>
+        <v>0.1564632252462843</v>
       </c>
       <c r="D15">
-        <v>0.6678823318805485</v>
+        <v>0.6027434953387285</v>
       </c>
       <c r="E15">
-        <v>0.2607727678865928</v>
+        <v>0.2095614600796694</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.9664332355300189</v>
+        <v>0.6091427639662044</v>
       </c>
       <c r="H15">
-        <v>0.9941805922998981</v>
+        <v>0.439709738319408</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1274231236695869</v>
+        <v>0.08462576404907196</v>
       </c>
       <c r="K15">
-        <v>0.4520866515242403</v>
+        <v>1.37938395039123</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3228983414906494</v>
+        <v>0.5689790900261471</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.967888261525985</v>
+        <v>2.160020163904733</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4673310955655836</v>
+        <v>1.282603488639012</v>
       </c>
       <c r="C16">
-        <v>0.04689869594457718</v>
+        <v>0.1485558161601404</v>
       </c>
       <c r="D16">
-        <v>0.6623190783432165</v>
+        <v>0.5730533810836107</v>
       </c>
       <c r="E16">
-        <v>0.2592257587921765</v>
+        <v>0.200108870338525</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.9673952695941921</v>
+        <v>0.5954566666245995</v>
       </c>
       <c r="H16">
-        <v>0.99725570060005</v>
+        <v>0.4378707445920895</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1271011086263201</v>
+        <v>0.08153774655583135</v>
       </c>
       <c r="K16">
-        <v>0.4262393579176091</v>
+        <v>1.292680586734178</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3135655683833463</v>
+        <v>0.533049357749718</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.976184657068956</v>
+        <v>2.126880221514625</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4517019481013165</v>
+        <v>1.228973254725815</v>
       </c>
       <c r="C17">
-        <v>0.04531020411840814</v>
+        <v>0.1437111109608793</v>
       </c>
       <c r="D17">
-        <v>0.6589849331427899</v>
+        <v>0.5550551379148487</v>
       </c>
       <c r="E17">
-        <v>0.2583075008604681</v>
+        <v>0.1943924443312213</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.9681309148895707</v>
+        <v>0.5874924732740254</v>
       </c>
       <c r="H17">
-        <v>0.9992474289944937</v>
+        <v>0.4369809369763402</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1269183916510528</v>
+        <v>0.07968180134127323</v>
       </c>
       <c r="K17">
-        <v>0.4103804230065009</v>
+        <v>1.239612731058088</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3078686298631936</v>
+        <v>0.5111218331764462</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.981800229312171</v>
+        <v>2.107961639382779</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4427169778172981</v>
+        <v>1.19817759957391</v>
       </c>
       <c r="C18">
-        <v>0.04439527926682274</v>
+        <v>0.1409265023653887</v>
       </c>
       <c r="D18">
-        <v>0.657096202290262</v>
+        <v>0.5447788340925399</v>
       </c>
       <c r="E18">
-        <v>0.2577906696093564</v>
+        <v>0.1911335317984992</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.9686074799953417</v>
+        <v>0.5830644924821229</v>
       </c>
       <c r="H18">
-        <v>1.000431715754829</v>
+        <v>0.4365541435777232</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1268187509924559</v>
+        <v>0.07862788527179276</v>
       </c>
       <c r="K18">
-        <v>0.4012580478966754</v>
+        <v>1.209129683989971</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3046024046405194</v>
+        <v>0.4985490248777396</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.985223461088964</v>
+        <v>2.097581089108417</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4396756102358097</v>
+        <v>1.187759031173613</v>
       </c>
       <c r="C19">
-        <v>0.04408528570517944</v>
+        <v>0.1399839820365401</v>
       </c>
       <c r="D19">
-        <v>0.6564616925917051</v>
+        <v>0.5413121554261409</v>
       </c>
       <c r="E19">
-        <v>0.2576176260912817</v>
+        <v>0.1900349877230028</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.968778013666423</v>
+        <v>0.5815909577283236</v>
       </c>
       <c r="H19">
-        <v>1.000839342965861</v>
+        <v>0.4364239978288253</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1267859513467897</v>
+        <v>0.07827332737787884</v>
       </c>
       <c r="K19">
-        <v>0.3981692581049572</v>
+        <v>1.198815124694761</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3034983265690698</v>
+        <v>0.4942985976618957</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.986415708465813</v>
+        <v>2.094150794034334</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4533652353387083</v>
+        <v>1.234676893769915</v>
       </c>
       <c r="C20">
-        <v>0.04547943327037274</v>
+        <v>0.1442266297664077</v>
       </c>
       <c r="D20">
-        <v>0.6593368602205771</v>
+        <v>0.5569631592427413</v>
       </c>
       <c r="E20">
-        <v>0.2584040790611439</v>
+        <v>0.1949979356438689</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.9680470728043673</v>
+        <v>0.5883243299561514</v>
       </c>
       <c r="H20">
-        <v>0.9990314015033164</v>
+        <v>0.4370668039173466</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.126937277872706</v>
+        <v>0.07987795264811126</v>
       </c>
       <c r="K20">
-        <v>0.4120687135819878</v>
+        <v>1.245257634820774</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3084739930248332</v>
+        <v>0.513451927252774</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.981182435881436</v>
+        <v>2.109923316229839</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4994131248700739</v>
+        <v>1.392958954704653</v>
       </c>
       <c r="C21">
-        <v>0.0501483170849184</v>
+        <v>0.1585069877300924</v>
       </c>
       <c r="D21">
-        <v>0.6693429558087871</v>
+        <v>0.6104784717712164</v>
       </c>
       <c r="E21">
-        <v>0.2611816802901643</v>
+        <v>0.2120284809879678</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.9662298448183719</v>
+        <v>0.6128146528739933</v>
       </c>
       <c r="H21">
-        <v>0.9934191834970392</v>
+        <v>0.4402603955236231</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1275108430352603</v>
+        <v>0.08543538482394553</v>
       </c>
       <c r="K21">
-        <v>0.4587590182104009</v>
+        <v>1.401810588068656</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3253166156705944</v>
+        <v>0.5782929663746401</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.965908915027626</v>
+        <v>2.169027671660615</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5295446492967528</v>
+        <v>1.496967282055806</v>
       </c>
       <c r="C22">
-        <v>0.05318803070615274</v>
+        <v>0.167865014369994</v>
       </c>
       <c r="D22">
-        <v>0.6761395718386893</v>
+        <v>0.6462041065505844</v>
       </c>
       <c r="E22">
-        <v>0.2630975635133623</v>
+        <v>0.2234450351694548</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.9655184477641541</v>
+        <v>0.6303091132761267</v>
       </c>
       <c r="H22">
-        <v>0.9900954752877311</v>
+        <v>0.4431610612186319</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1279341820718258</v>
+        <v>0.08920051031883247</v>
       </c>
       <c r="K22">
-        <v>0.489263721741338</v>
+        <v>1.504585187894918</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3364164868677051</v>
+        <v>0.6210781909874754</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.957648147073286</v>
+        <v>2.212505986982137</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5134597120422768</v>
+        <v>1.441399236680439</v>
       </c>
       <c r="C23">
-        <v>0.05156676535737859</v>
+        <v>0.1628677797619673</v>
       </c>
       <c r="D23">
-        <v>0.672488618926792</v>
+        <v>0.6270642131773343</v>
       </c>
       <c r="E23">
-        <v>0.2620658338514659</v>
+        <v>0.2173242294612763</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.9658545371941187</v>
+        <v>0.6208293219767853</v>
       </c>
       <c r="H23">
-        <v>0.9918379255059904</v>
+        <v>0.4415356301569631</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1277038059160489</v>
+        <v>0.08717820645351537</v>
       </c>
       <c r="K23">
-        <v>0.4729838844999961</v>
+        <v>1.449685438342982</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3304838985953324</v>
+        <v>0.5982026744449911</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.961899568898787</v>
+        <v>2.188837309506141</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4526132617857286</v>
+        <v>1.232098164219224</v>
       </c>
       <c r="C24">
-        <v>0.04540292999843132</v>
+        <v>0.1439935616892996</v>
       </c>
       <c r="D24">
-        <v>0.6591776664078282</v>
+        <v>0.5561003220723535</v>
       </c>
       <c r="E24">
-        <v>0.2583603815173134</v>
+        <v>0.1947241075489927</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.9680848107510514</v>
+        <v>0.5879477794108681</v>
       </c>
       <c r="H24">
-        <v>0.999128945371865</v>
+        <v>0.4370277200486186</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1269287225726501</v>
+        <v>0.07978923199628696</v>
       </c>
       <c r="K24">
-        <v>0.4113054525196844</v>
+        <v>1.242705492776224</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3082002802278367</v>
+        <v>0.5123983876324303</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.981461133605478</v>
+        <v>2.109034901427322</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3871544895141596</v>
+        <v>1.008230248903942</v>
       </c>
       <c r="C25">
-        <v>0.03870603430699759</v>
+        <v>0.1237049271576183</v>
       </c>
       <c r="D25">
-        <v>0.6459281906420529</v>
+        <v>0.48241463882988</v>
       </c>
       <c r="E25">
-        <v>0.2547966375913937</v>
+        <v>0.1714419474340652</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.972533433740864</v>
+        <v>0.5582578743956361</v>
       </c>
       <c r="H25">
-        <v>1.008473204339083</v>
+        <v>0.4353866397033954</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1263012012146589</v>
+        <v>0.07233191601268629</v>
       </c>
       <c r="K25">
-        <v>0.3447490549276608</v>
+        <v>1.020929914733586</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2845660137116823</v>
+        <v>0.4213189678831313</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.009951738581805</v>
+        <v>2.041910784547156</v>
       </c>
     </row>
   </sheetData>
